--- a/Projects/INBEVCO_SAND/Data/Template.xlsx
+++ b/Projects/INBEVCO_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Relative Positioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -50,7 +50,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Name of KPI</t>
+          <t xml:space="preserve">Name of KPI</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Please enter the primary "instore location", according the the channel in column E</t>
+          <t xml:space="preserve">Please enter the primary "instore location", according the the channel in column E</t>
         </r>
       </text>
     </comment>
@@ -78,7 +78,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Please enter the EAN code of the SKU you would like to track</t>
+          <t xml:space="preserve">Please enter the EAN code of the SKU you would like to track</t>
         </r>
       </text>
     </comment>
@@ -92,7 +92,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Please enter the EAN code of the SKU you would like to track</t>
+          <t xml:space="preserve">Please enter the EAN code of the SKU you would like to track</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Please enter the EAN code of the SKU that will be used as an anchor. 
+          <t xml:space="preserve">Please enter the EAN code of the SKU that will be used as an anchor. 
 The "Tracked SKU" position will be measured in relation to "Anchor SKU" </t>
         </r>
       </text>
@@ -121,7 +121,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Please enter the EAN code of the SKU that will be used as an anchor. 
+          <t xml:space="preserve">Please enter the EAN code of the SKU that will be used as an anchor. 
 The "Tracked SKU" position will be measured in relation to "Anchor SKU" </t>
         </r>
       </text>
@@ -146,7 +146,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Naming Convention: 
+          <t xml:space="preserve">Naming Convention: 
 'Brand Name' or 'Brand Varient' at 'in store location' </t>
         </r>
       </text>
@@ -161,7 +161,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>- Only Primary Location!- 
+          <t xml:space="preserve">- Only Primary Location!- 
 - Off trade - usually Main shelf
 - On trade - usually Back Bar</t>
         </r>
@@ -177,7 +177,7 @@
             <family val="2"/>
             <charset val="177"/>
           </rPr>
-          <t>Brand Variant is optional</t>
+          <t xml:space="preserve">Brand Variant is optional</t>
         </r>
       </text>
     </comment>
@@ -186,168 +186,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
-  <si>
-    <t>Above Direction</t>
-  </si>
-  <si>
-    <t>Below Direction</t>
-  </si>
-  <si>
-    <t>Left Direction</t>
-  </si>
-  <si>
-    <t>Right Direction</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>Atomic Name</t>
-  </si>
-  <si>
-    <t>Primary "In store location"</t>
-  </si>
-  <si>
-    <t>Tested Brand Name</t>
-  </si>
-  <si>
-    <t>Tested SKU EAN </t>
-  </si>
-  <si>
-    <t>Anchor Brand Name</t>
-  </si>
-  <si>
-    <t>Anchor SKU EAN</t>
-  </si>
-  <si>
-    <t>Above Allowed? </t>
-  </si>
-  <si>
-    <t>Up to (above) distance (by shelves) </t>
-  </si>
-  <si>
-    <t>Below Allowed?</t>
-  </si>
-  <si>
-    <t>Up to (below) distance (by shelves)</t>
-  </si>
-  <si>
-    <t>Left Allowed?</t>
-  </si>
-  <si>
-    <t>Up to (Left) Distance (by SKU facings) </t>
-  </si>
-  <si>
-    <t>Right allowed? </t>
-  </si>
-  <si>
-    <t>Up to (right) distance (by SKU facings) </t>
-  </si>
-  <si>
-    <t>Off Trade</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA DORADA Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA DORADA</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>AGUILA LIGHT Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>AGUILA LIGHT</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>AGUILA  Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>AGUILA </t>
-  </si>
-  <si>
-    <t>POKER Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>POKER</t>
-  </si>
-  <si>
-    <t>Brand Blocking - Template</t>
-  </si>
-  <si>
-    <t>Brand Name</t>
-  </si>
-  <si>
-    <t>Brand Variant</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA DORADA At Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA ROJA At Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA ROJA</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA NEGRA At Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>CLUB COLOMBIA NEGRA</t>
-  </si>
-  <si>
-    <t>AGUILA LIGHT At Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>AGUILA At Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>AGUILA</t>
-  </si>
-  <si>
-    <t>POKER At Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>PILSEN At Nevera Bavaria</t>
-  </si>
-  <si>
-    <t>PILSEN</t>
-  </si>
-  <si>
-    <t>Entity Type To Check Purity</t>
-  </si>
-  <si>
-    <t>Value (as Appears in DB)</t>
-  </si>
-  <si>
-    <t>SOS Target to Determine Purity</t>
-  </si>
-  <si>
-    <t>manufacturer_name</t>
-  </si>
-  <si>
-    <t>AB-INBEV</t>
-  </si>
-  <si>
-    <t>Equipo de frio – Disponibilidad</t>
-  </si>
-  <si>
-    <t>Equipos de Frío 2018</t>
-  </si>
-  <si>
-    <t>Disponibilidad NABs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">Above Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atomic Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary "In store location"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Brand Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested SKU EAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor Brand Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor SKU EAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above Allowed? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to (above) distance (by shelves) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below Allowed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to (below) distance (by shelves)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Allowed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to (Left) Distance (by SKU facings) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right allowed? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to (right) distance (by SKU facings) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB COLOMBIA DORADA Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB COLOMBIA DORADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILA LIGHT Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILA LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILA  Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POKER Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Blocking - Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB COLOMBIA DORADA At Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB COLOMBIA ROJA At Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB COLOMBIA ROJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB COLOMBIA NEGRA At Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB COLOMBIA NEGRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILA LIGHT At Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILA At Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POKER At Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILSEN At Nevera Bavaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILSEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity Type To Check Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (as Appears in DB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS Target to Determine Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB-INBEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo de frio – Disponibilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipos de Frío 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidad NABs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevera Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevera Propia/Competencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevera Propia/Competencia - NUEVA</t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
@@ -381,6 +390,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -410,13 +426,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -505,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -576,29 +585,8 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,19 +610,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -647,11 +635,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,7 +651,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,15 +671,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -695,27 +687,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -731,31 +723,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 5" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -831,9 +828,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2401560</xdr:colOff>
+      <xdr:colOff>2401200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -842,13 +839,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="39584" t="2512" r="34498" b="0"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10623960" y="1823040"/>
-          <a:ext cx="3236040" cy="6680880"/>
+        <a:srcRect l="39578" t="2512" r="34492" b="0"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10681200" y="1823040"/>
+          <a:ext cx="3254760" cy="6680520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,9 +866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1933200</xdr:colOff>
+      <xdr:colOff>1932840</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -885,8 +882,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13129920" y="2966040"/>
-          <a:ext cx="261720" cy="887040"/>
+          <a:off x="13206240" y="2966040"/>
+          <a:ext cx="261360" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,9 +904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>804240</xdr:colOff>
+      <xdr:colOff>803880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -923,8 +920,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12052440" y="3011760"/>
-          <a:ext cx="210240" cy="887040"/>
+          <a:off x="12128760" y="3011760"/>
+          <a:ext cx="209880" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,9 +942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>551520</xdr:colOff>
+      <xdr:colOff>551160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -961,8 +958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11799720" y="3011760"/>
-          <a:ext cx="210240" cy="887040"/>
+          <a:off x="11876040" y="3011760"/>
+          <a:ext cx="209880" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,9 +980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1700280</xdr:colOff>
+      <xdr:colOff>1699920</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -999,8 +996,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12897000" y="2952720"/>
-          <a:ext cx="261720" cy="887040"/>
+          <a:off x="12973320" y="2952720"/>
+          <a:ext cx="261360" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,9 +1018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>783360</xdr:colOff>
+      <xdr:colOff>783000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1036,8 +1033,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12017880" y="4799520"/>
-          <a:ext cx="223920" cy="780120"/>
+          <a:off x="12094200" y="4799520"/>
+          <a:ext cx="223560" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,9 +1055,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>508320</xdr:colOff>
+      <xdr:colOff>507960</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1073,8 +1070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11742840" y="4799520"/>
-          <a:ext cx="223920" cy="780120"/>
+          <a:off x="11819160" y="4799520"/>
+          <a:ext cx="223560" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,9 +1092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1074240</xdr:colOff>
+      <xdr:colOff>1073880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1110,8 +1107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12308760" y="4804200"/>
-          <a:ext cx="223920" cy="780120"/>
+          <a:off x="12385080" y="4804200"/>
+          <a:ext cx="223560" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,9 +1129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1972800</xdr:colOff>
+      <xdr:colOff>1972440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1147,8 +1144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13207320" y="4797360"/>
-          <a:ext cx="223920" cy="780120"/>
+          <a:off x="13283640" y="4797360"/>
+          <a:ext cx="223560" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,9 +1166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1382040</xdr:colOff>
+      <xdr:colOff>1381680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1184,8 +1181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12616560" y="4804200"/>
-          <a:ext cx="223920" cy="780120"/>
+          <a:off x="12692880" y="4804200"/>
+          <a:ext cx="223560" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,9 +1203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1675800</xdr:colOff>
+      <xdr:colOff>1675440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1221,8 +1218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12910320" y="4804200"/>
-          <a:ext cx="223920" cy="780120"/>
+          <a:off x="12986640" y="4804200"/>
+          <a:ext cx="223560" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,9 +1240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>821520</xdr:colOff>
+      <xdr:colOff>821160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1258,8 +1255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12043800" y="3961440"/>
-          <a:ext cx="236160" cy="823320"/>
+          <a:off x="12120120" y="3961440"/>
+          <a:ext cx="235800" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,9 +1277,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>559080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1295,8 +1292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11781720" y="3952800"/>
-          <a:ext cx="236160" cy="823320"/>
+          <a:off x="11858040" y="3952800"/>
+          <a:ext cx="235800" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,9 +1314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1105920</xdr:colOff>
+      <xdr:colOff>1105560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1332,8 +1329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12328200" y="3948840"/>
-          <a:ext cx="236160" cy="823320"/>
+          <a:off x="12404520" y="3948840"/>
+          <a:ext cx="235800" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2004480</xdr:colOff>
+      <xdr:colOff>2004120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1369,8 +1366,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13226760" y="3942360"/>
-          <a:ext cx="236160" cy="823320"/>
+          <a:off x="13303080" y="3942360"/>
+          <a:ext cx="235800" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,9 +1388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1413720</xdr:colOff>
+      <xdr:colOff>1413360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1406,8 +1403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12636000" y="3948840"/>
-          <a:ext cx="236160" cy="823320"/>
+          <a:off x="12712320" y="3948840"/>
+          <a:ext cx="235800" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1428,9 +1425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1707120</xdr:colOff>
+      <xdr:colOff>1706760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,8 +1440,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12929400" y="3948840"/>
-          <a:ext cx="236160" cy="823320"/>
+          <a:off x="13005720" y="3948840"/>
+          <a:ext cx="235800" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,9 +1462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>508320</xdr:colOff>
+      <xdr:colOff>507960</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1481,8 +1478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11734200" y="5595840"/>
-          <a:ext cx="232560" cy="771480"/>
+          <a:off x="11810520" y="5595840"/>
+          <a:ext cx="232200" cy="771120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,9 +1500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>798480</xdr:colOff>
+      <xdr:colOff>798120</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1519,8 +1516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12024360" y="5609160"/>
-          <a:ext cx="232560" cy="771480"/>
+          <a:off x="12100680" y="5609160"/>
+          <a:ext cx="232200" cy="771120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1541,9 +1538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1068840</xdr:colOff>
+      <xdr:colOff>1068480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1557,8 +1554,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12294720" y="5609160"/>
-          <a:ext cx="232560" cy="771480"/>
+          <a:off x="12371040" y="5609160"/>
+          <a:ext cx="232200" cy="771120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1579,9 +1576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1405440</xdr:colOff>
+      <xdr:colOff>1405080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,8 +1592,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12643920" y="5586840"/>
-          <a:ext cx="219960" cy="770040"/>
+          <a:off x="12720240" y="5586840"/>
+          <a:ext cx="219600" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,9 +1614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1715400</xdr:colOff>
+      <xdr:colOff>1715040</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1633,8 +1630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12929040" y="6452280"/>
-          <a:ext cx="244800" cy="770040"/>
+          <a:off x="13005360" y="6452280"/>
+          <a:ext cx="244440" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,9 +1652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1690920</xdr:colOff>
+      <xdr:colOff>1690560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1671,8 +1668,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12929400" y="5580000"/>
-          <a:ext cx="219960" cy="770040"/>
+          <a:off x="13005720" y="5580000"/>
+          <a:ext cx="219600" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,9 +1690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1988280</xdr:colOff>
+      <xdr:colOff>1987920</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1709,8 +1706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13226760" y="5576040"/>
-          <a:ext cx="219960" cy="770040"/>
+          <a:off x="13303080" y="5576040"/>
+          <a:ext cx="219600" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,9 +1728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>813240</xdr:colOff>
+      <xdr:colOff>812880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1747,8 +1744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12051720" y="6472080"/>
-          <a:ext cx="219960" cy="770040"/>
+          <a:off x="12128040" y="6472080"/>
+          <a:ext cx="219600" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1769,9 +1766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
+      <xdr:colOff>550800</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1785,8 +1782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11789640" y="6472800"/>
-          <a:ext cx="219960" cy="770040"/>
+          <a:off x="11865960" y="6472800"/>
+          <a:ext cx="219600" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,9 +1804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1970280</xdr:colOff>
+      <xdr:colOff>1969920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1823,8 +1820,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13183920" y="6466320"/>
-          <a:ext cx="244800" cy="770040"/>
+          <a:off x="13260240" y="6466320"/>
+          <a:ext cx="244440" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,9 +1842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1449360</xdr:colOff>
+      <xdr:colOff>1449000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1861,8 +1858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12663000" y="6454440"/>
-          <a:ext cx="244800" cy="770040"/>
+          <a:off x="12739320" y="6454440"/>
+          <a:ext cx="244440" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1883,9 +1880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112400</xdr:colOff>
+      <xdr:colOff>1112040</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1899,8 +1896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12350880" y="6455520"/>
-          <a:ext cx="219960" cy="770040"/>
+          <a:off x="12427200" y="6455520"/>
+          <a:ext cx="219600" cy="769680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +1918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1092600</xdr:colOff>
+      <xdr:colOff>1092240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1937,8 +1934,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12340800" y="3000960"/>
-          <a:ext cx="210240" cy="887040"/>
+          <a:off x="12417120" y="3000960"/>
+          <a:ext cx="209880" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1959,9 +1956,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1417320</xdr:colOff>
+      <xdr:colOff>1416960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1975,8 +1972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12614040" y="2955240"/>
-          <a:ext cx="261720" cy="887040"/>
+          <a:off x="12690360" y="2955240"/>
+          <a:ext cx="261360" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2007,68 +2004,68 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.0161943319838"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="255" min="17" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="256" min="256" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="257" min="257" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="257" min="257" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="259" min="259" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="260" min="260" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="263" min="263" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="266" min="266" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="267" min="267" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="268" min="268" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="269" min="269" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="270" min="270" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="269" min="269" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="270" min="270" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="511" min="271" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="512" min="512" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="513" min="513" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="513" min="513" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="515" min="515" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="516" min="516" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="519" min="519" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="522" min="522" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="523" min="523" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="524" min="524" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="525" min="525" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="526" min="526" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="525" min="525" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="526" min="526" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="767" min="527" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="768" min="768" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="769" min="769" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="769" min="769" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="771" min="771" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="772" min="772" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="775" min="775" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="778" min="778" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="779" min="779" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="780" min="780" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="781" min="781" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="782" min="782" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="781" min="781" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="782" min="782" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1023" min="783" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3"/>
   </cols>
@@ -2362,56 +2359,56 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="509" min="266" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="514" min="514" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="765" min="522" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="76.4817813765182"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="770" min="770" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1021" min="778" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="76.4817813765182"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2592,19 +2589,19 @@
     <tabColor rgb="FFDAE3F3"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2685,11 +2682,47 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="25" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/INBEVCO_SAND/Data/Template.xlsx
+++ b/Projects/INBEVCO_SAND/Data/Template.xlsx
@@ -392,13 +392,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF548235"/>
@@ -426,6 +419,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -586,7 +586,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -610,19 +610,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -635,15 +635,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,7 +647,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,15 +667,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,27 +683,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -731,28 +727,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 5" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -828,9 +815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2401200</xdr:colOff>
+      <xdr:colOff>2400840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -839,13 +826,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="39578" t="2512" r="34492" b="0"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10681200" y="1823040"/>
-          <a:ext cx="3254760" cy="6680520"/>
+        <a:srcRect l="39584" t="2512" r="34498" b="0"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10747800" y="1823040"/>
+          <a:ext cx="3273480" cy="6680160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,9 +853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1932840</xdr:colOff>
+      <xdr:colOff>1932480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -882,8 +869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13206240" y="2966040"/>
-          <a:ext cx="261360" cy="886680"/>
+          <a:off x="13291920" y="2966040"/>
+          <a:ext cx="261000" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -904,9 +891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>803880</xdr:colOff>
+      <xdr:colOff>803520</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -920,8 +907,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12128760" y="3011760"/>
-          <a:ext cx="209880" cy="886680"/>
+          <a:off x="12214440" y="3011760"/>
+          <a:ext cx="209520" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,9 +929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
+      <xdr:colOff>550800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -958,8 +945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11876040" y="3011760"/>
-          <a:ext cx="209880" cy="886680"/>
+          <a:off x="11961720" y="3011760"/>
+          <a:ext cx="209520" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -980,9 +967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1699920</xdr:colOff>
+      <xdr:colOff>1699560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -996,8 +983,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12973320" y="2952720"/>
-          <a:ext cx="261360" cy="886680"/>
+          <a:off x="13059000" y="2952720"/>
+          <a:ext cx="261000" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,9 +1005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
+      <xdr:colOff>782640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1033,8 +1020,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12094200" y="4799520"/>
-          <a:ext cx="223560" cy="779760"/>
+          <a:off x="12179880" y="4799520"/>
+          <a:ext cx="223200" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,9 +1042,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
+      <xdr:colOff>507600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1070,8 +1057,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11819160" y="4799520"/>
-          <a:ext cx="223560" cy="779760"/>
+          <a:off x="11904840" y="4799520"/>
+          <a:ext cx="223200" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1092,9 +1079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1073880</xdr:colOff>
+      <xdr:colOff>1073520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1107,8 +1094,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12385080" y="4804200"/>
-          <a:ext cx="223560" cy="779760"/>
+          <a:off x="12470760" y="4804200"/>
+          <a:ext cx="223200" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1129,9 +1116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1972440</xdr:colOff>
+      <xdr:colOff>1972080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1144,8 +1131,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13283640" y="4797360"/>
-          <a:ext cx="223560" cy="779760"/>
+          <a:off x="13369320" y="4797360"/>
+          <a:ext cx="223200" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,9 +1153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1381680</xdr:colOff>
+      <xdr:colOff>1381320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1181,8 +1168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12692880" y="4804200"/>
-          <a:ext cx="223560" cy="779760"/>
+          <a:off x="12778560" y="4804200"/>
+          <a:ext cx="223200" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1203,9 +1190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1675440</xdr:colOff>
+      <xdr:colOff>1675080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1218,8 +1205,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12986640" y="4804200"/>
-          <a:ext cx="223560" cy="779760"/>
+          <a:off x="13072320" y="4804200"/>
+          <a:ext cx="223200" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1240,9 +1227,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>821160</xdr:colOff>
+      <xdr:colOff>820800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1255,8 +1242,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12120120" y="3961440"/>
-          <a:ext cx="235800" cy="822960"/>
+          <a:off x="12205800" y="3961440"/>
+          <a:ext cx="235440" cy="822600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1277,9 +1264,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
+      <xdr:colOff>558720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1292,8 +1279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11858040" y="3952800"/>
-          <a:ext cx="235800" cy="822960"/>
+          <a:off x="11943720" y="3952800"/>
+          <a:ext cx="235440" cy="822600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,9 +1301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1105560</xdr:colOff>
+      <xdr:colOff>1105200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1329,8 +1316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12404520" y="3948840"/>
-          <a:ext cx="235800" cy="822960"/>
+          <a:off x="12490200" y="3948840"/>
+          <a:ext cx="235440" cy="822600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,9 +1338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2004120</xdr:colOff>
+      <xdr:colOff>2003760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1366,8 +1353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13303080" y="3942360"/>
-          <a:ext cx="235800" cy="822960"/>
+          <a:off x="13388760" y="3942360"/>
+          <a:ext cx="235440" cy="822600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1388,9 +1375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1413360</xdr:colOff>
+      <xdr:colOff>1413000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,8 +1390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12712320" y="3948840"/>
-          <a:ext cx="235800" cy="822960"/>
+          <a:off x="12798000" y="3948840"/>
+          <a:ext cx="235440" cy="822600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1425,9 +1412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1706760</xdr:colOff>
+      <xdr:colOff>1706400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1440,8 +1427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13005720" y="3948840"/>
-          <a:ext cx="235800" cy="822960"/>
+          <a:off x="13091400" y="3948840"/>
+          <a:ext cx="235440" cy="822600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,9 +1449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
+      <xdr:colOff>507600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1478,8 +1465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11810520" y="5595840"/>
-          <a:ext cx="232200" cy="771120"/>
+          <a:off x="11896200" y="5595840"/>
+          <a:ext cx="231840" cy="770760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1500,9 +1487,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>798120</xdr:colOff>
+      <xdr:colOff>797760</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,8 +1503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12100680" y="5609160"/>
-          <a:ext cx="232200" cy="771120"/>
+          <a:off x="12186360" y="5609160"/>
+          <a:ext cx="231840" cy="770760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1538,9 +1525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1068480</xdr:colOff>
+      <xdr:colOff>1068120</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1554,8 +1541,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12371040" y="5609160"/>
-          <a:ext cx="232200" cy="771120"/>
+          <a:off x="12456720" y="5609160"/>
+          <a:ext cx="231840" cy="770760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,9 +1563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1405080</xdr:colOff>
+      <xdr:colOff>1404720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1592,8 +1579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12720240" y="5586840"/>
-          <a:ext cx="219600" cy="769680"/>
+          <a:off x="12805920" y="5586840"/>
+          <a:ext cx="219240" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,9 +1601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1715040</xdr:colOff>
+      <xdr:colOff>1714680</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,8 +1617,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13005360" y="6452280"/>
-          <a:ext cx="244440" cy="769680"/>
+          <a:off x="13091040" y="6452280"/>
+          <a:ext cx="244080" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,9 +1639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1690560</xdr:colOff>
+      <xdr:colOff>1690200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1668,8 +1655,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13005720" y="5580000"/>
-          <a:ext cx="219600" cy="769680"/>
+          <a:off x="13091400" y="5580000"/>
+          <a:ext cx="219240" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1987920</xdr:colOff>
+      <xdr:colOff>1987560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1706,8 +1693,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13303080" y="5576040"/>
-          <a:ext cx="219600" cy="769680"/>
+          <a:off x="13388760" y="5576040"/>
+          <a:ext cx="219240" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,9 +1715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>812880</xdr:colOff>
+      <xdr:colOff>812520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1744,8 +1731,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12128040" y="6472080"/>
-          <a:ext cx="219600" cy="769680"/>
+          <a:off x="12213720" y="6472080"/>
+          <a:ext cx="219240" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1766,9 +1753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1782,8 +1769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11865960" y="6472800"/>
-          <a:ext cx="219600" cy="769680"/>
+          <a:off x="11951640" y="6472800"/>
+          <a:ext cx="219240" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,9 +1791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1969920</xdr:colOff>
+      <xdr:colOff>1969560</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1820,8 +1807,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13260240" y="6466320"/>
-          <a:ext cx="244440" cy="769680"/>
+          <a:off x="13345920" y="6466320"/>
+          <a:ext cx="244080" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,9 +1829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1449000</xdr:colOff>
+      <xdr:colOff>1448640</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1858,8 +1845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12739320" y="6454440"/>
-          <a:ext cx="244440" cy="769680"/>
+          <a:off x="12825000" y="6454440"/>
+          <a:ext cx="244080" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,9 +1867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1112040</xdr:colOff>
+      <xdr:colOff>1111680</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1896,8 +1883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12427200" y="6455520"/>
-          <a:ext cx="219600" cy="769680"/>
+          <a:off x="12512880" y="6455520"/>
+          <a:ext cx="219240" cy="769320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1918,9 +1905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1092240</xdr:colOff>
+      <xdr:colOff>1091880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1934,8 +1921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12417120" y="3000960"/>
-          <a:ext cx="209880" cy="886680"/>
+          <a:off x="12502800" y="3000960"/>
+          <a:ext cx="209520" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,9 +1943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1416960</xdr:colOff>
+      <xdr:colOff>1416600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1972,8 +1959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12690360" y="2955240"/>
-          <a:ext cx="261360" cy="886680"/>
+          <a:off x="12776040" y="2955240"/>
+          <a:ext cx="261000" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2004,68 +1991,68 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="255" min="17" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="256" min="256" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="257" min="257" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="257" min="257" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="77.1255060728745"/>
     <col collapsed="false" hidden="false" max="259" min="259" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="260" min="260" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="262" min="262" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="263" min="263" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="266" min="266" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="267" min="267" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="268" min="268" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="269" min="269" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="270" min="270" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="269" min="269" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="270" min="270" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="511" min="271" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="512" min="512" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="513" min="513" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="513" min="513" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="77.1255060728745"/>
     <col collapsed="false" hidden="false" max="515" min="515" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="516" min="516" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="518" min="518" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="519" min="519" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="522" min="522" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="523" min="523" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="524" min="524" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="525" min="525" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="526" min="526" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="525" min="525" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="526" min="526" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="767" min="527" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="768" min="768" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="769" min="769" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="769" min="769" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="77.1255060728745"/>
     <col collapsed="false" hidden="false" max="771" min="771" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="772" min="772" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="774" min="774" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="775" min="775" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="778" min="778" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="779" min="779" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="780" min="780" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="781" min="781" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="782" min="782" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="781" min="781" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="782" min="782" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1023" min="783" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="3"/>
   </cols>
@@ -2359,56 +2346,56 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="254" min="254" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="256" min="256" style="0" width="77.1255060728745"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="262" min="262" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="263" min="263" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="264" min="264" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="509" min="266" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="510" min="510" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="511" min="511" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="512" min="512" style="0" width="77.1255060728745"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="514" min="514" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="518" min="518" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="519" min="519" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="520" min="520" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="765" min="522" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="766" min="766" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="767" min="767" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="768" min="768" style="0" width="77.1255060728745"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="0" width="3.42914979757085"/>
     <col collapsed="false" hidden="false" max="770" min="770" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="774" min="774" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="775" min="775" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="776" min="776" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1021" min="778" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="1023" min="1023" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="77.1255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2592,16 +2579,16 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2703,7 +2690,7 @@
       <c r="C10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="25" t="n">
@@ -2711,13 +2698,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="25" t="n">
